--- a/df.xlsx
+++ b/df.xlsx
@@ -441,7 +441,7 @@
         <v>17095</v>
       </c>
       <c r="I2" t="n">
-        <v>2052</v>
+        <v>344323.995336</v>
       </c>
       <c r="J2" t="n">
         <v>1179.5</v>
@@ -475,7 +475,7 @@
         <v>17095</v>
       </c>
       <c r="I3" t="n">
-        <v>2052</v>
+        <v>344323.995336</v>
       </c>
       <c r="J3" t="n">
         <v>1179.5</v>
@@ -509,7 +509,7 @@
         <v>16900</v>
       </c>
       <c r="I4" t="n">
-        <v>2057.5</v>
+        <v>345246.891035</v>
       </c>
       <c r="J4" t="n">
         <v>1190</v>
@@ -543,7 +543,7 @@
         <v>16900</v>
       </c>
       <c r="I5" t="n">
-        <v>2057.5</v>
+        <v>345246.891035</v>
       </c>
       <c r="J5" t="n">
         <v>1190</v>
@@ -615,7 +615,7 @@
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>2103.5</v>
+        <v>352965.655063</v>
       </c>
       <c r="J8" t="n">
         <v>1206</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>2103.5</v>
+        <v>352965.655063</v>
       </c>
       <c r="J9" t="n">
         <v>1206</v>
